--- a/10.- Repaso_Market_Risk_P2025.xlsx
+++ b/10.- Repaso_Market_Risk_P2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A81ADE-59F0-0049-99A6-6849615557CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDCBB0B-009E-7743-B2A7-5B4B6BA8FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="1233">
   <si>
     <t>ITOT</t>
   </si>
@@ -3740,6 +3740,12 @@
   </si>
   <si>
     <t>Riesgo es que baje la tasa</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Posición respecto a fija</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +3895,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4046,6 +4052,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4879,7 +4886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="150" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -8927,8 +8934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1516EC22-7CBD-674E-9A2A-E8B714A31F08}">
   <dimension ref="A1:S511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9563,6 +9570,9 @@
       <c r="J20" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="L20" t="s">
+        <v>1231</v>
+      </c>
       <c r="M20" t="s">
         <v>1230</v>
       </c>
@@ -9598,6 +9608,9 @@
       <c r="J21" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="L21" s="5" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -9944,7 +9957,7 @@
       <c r="P30" s="49" t="s">
         <v>1222</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="62">
         <f>ABS(Q28-Q27)</f>
         <v>5.7300000000012119E-2</v>
       </c>
@@ -10408,6 +10421,7 @@
       <c r="J43" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -28321,7 +28335,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="1" sqref="B8:E8 B15:E15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/10.- Repaso_Market_Risk_P2025.xlsx
+++ b/10.- Repaso_Market_Risk_P2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDCBB0B-009E-7743-B2A7-5B4B6BA8FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0212030F-9F40-2E4A-BF9E-4B0AB3ABAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Equities" sheetId="1" r:id="rId1"/>
@@ -3895,7 +3895,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4020,15 +4020,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4037,7 +4028,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -4050,9 +4041,17 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -8935,7 +8934,7 @@
   <dimension ref="A1:S511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9646,7 +9645,7 @@
       <c r="N22" t="s">
         <v>1213</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="44">
         <v>48730</v>
       </c>
     </row>
@@ -9684,7 +9683,7 @@
       <c r="N23" t="s">
         <v>1214</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="44">
         <v>45342</v>
       </c>
     </row>
@@ -9722,7 +9721,7 @@
       <c r="N24" t="s">
         <v>1215</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="45">
         <v>0.10829999999999999</v>
       </c>
     </row>
@@ -9830,14 +9829,14 @@
       <c r="M27" t="s">
         <v>1217</v>
       </c>
-      <c r="N27" s="55">
-        <v>61207000</v>
+      <c r="N27" s="61">
+        <v>61219000</v>
       </c>
       <c r="P27" t="s">
         <v>1218</v>
       </c>
-      <c r="Q27" s="60">
-        <v>89.646600000000007</v>
+      <c r="Q27" s="52">
+        <v>89.617999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -9874,14 +9873,14 @@
       <c r="M28" t="s">
         <v>1219</v>
       </c>
-      <c r="N28" s="55">
-        <v>61475000</v>
+      <c r="N28" s="61">
+        <v>61487000</v>
       </c>
       <c r="P28" t="s">
         <v>1220</v>
       </c>
-      <c r="Q28" s="60">
-        <v>89.589299999999994</v>
+      <c r="Q28" s="52">
+        <v>89.560699999999997</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -9947,19 +9946,19 @@
       <c r="J30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="46" t="s">
         <v>1221</v>
       </c>
-      <c r="N30" s="50">
+      <c r="N30" s="47">
         <f>ABS(N28-N27)</f>
         <v>268000</v>
       </c>
-      <c r="P30" s="49" t="s">
+      <c r="P30" s="46" t="s">
         <v>1222</v>
       </c>
-      <c r="Q30" s="62">
+      <c r="Q30" s="48">
         <f>ABS(Q28-Q27)</f>
-        <v>5.7300000000012119E-2</v>
+        <v>5.7299999999997908E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -10025,17 +10024,17 @@
       <c r="J32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="M32" s="49" t="s">
         <v>1225</v>
       </c>
-      <c r="N32" s="53">
+      <c r="N32" s="50">
         <f>N30/Q30</f>
-        <v>4677137.8708541589</v>
-      </c>
-      <c r="O32" s="52" t="s">
+        <v>4677137.8708553193</v>
+      </c>
+      <c r="O32" s="49" t="s">
         <v>1223</v>
       </c>
-      <c r="P32" s="54"/>
+      <c r="P32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -10167,14 +10166,14 @@
       <c r="M36" t="s">
         <v>1228</v>
       </c>
-      <c r="N36" s="55">
-        <v>69776000</v>
+      <c r="N36" s="61">
+        <v>69780000</v>
       </c>
       <c r="P36" t="s">
         <v>1229</v>
       </c>
-      <c r="Q36" s="60">
-        <v>87.836200000000005</v>
+      <c r="Q36" s="52">
+        <v>87.808300000000003</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -10240,19 +10239,19 @@
       <c r="J38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M38" s="49" t="s">
+      <c r="M38" s="46" t="s">
         <v>1226</v>
       </c>
-      <c r="N38" s="50">
+      <c r="N38" s="47">
         <f>N36-N27</f>
-        <v>8569000</v>
-      </c>
-      <c r="P38" s="49" t="s">
+        <v>8561000</v>
+      </c>
+      <c r="P38" s="46" t="s">
         <v>1226</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38" s="48">
         <f>(Q36-Q27)*N32</f>
-        <v>-8467490.4013943747</v>
+        <v>-8464216.4048868362</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -10318,12 +10317,12 @@
       <c r="J40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="49" t="s">
         <v>1227</v>
       </c>
-      <c r="N40" s="61">
+      <c r="N40" s="57">
         <f>N38+Q38</f>
-        <v>101509.59860562533</v>
+        <v>96783.595113163814</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -10421,7 +10420,7 @@
       <c r="J43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -15008,34 +15007,34 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="53" t="s">
         <v>655</v>
       </c>
-      <c r="B194" s="57" t="s">
+      <c r="B194" s="54" t="s">
         <v>656</v>
       </c>
-      <c r="C194" s="57" t="s">
+      <c r="C194" s="54" t="s">
         <v>657</v>
       </c>
-      <c r="D194" s="57" t="s">
+      <c r="D194" s="54" t="s">
         <v>658</v>
       </c>
-      <c r="E194" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F194" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" s="57" t="s">
+      <c r="E194" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="H194" s="58">
+      <c r="H194" s="55">
         <v>89.492000000000004</v>
       </c>
-      <c r="I194" s="59">
+      <c r="I194" s="56">
         <v>9.1850000000000005</v>
       </c>
-      <c r="J194" s="57" t="s">
+      <c r="J194" s="54" t="s">
         <v>659</v>
       </c>
     </row>
@@ -28344,33 +28343,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="G4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -28477,32 +28476,32 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="G9" s="46" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="G11" s="45" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="G11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
